--- a/09_sales_data_large_07.02.2026.xlsx
+++ b/09_sales_data_large_07.02.2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED125897-9847-448F-8464-789400460E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56124577-0B84-4432-920E-BAEF5C9B0204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
